--- a/data/plantilla.xlsx
+++ b/data/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automatizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3256CC1-E8AA-44E3-8205-BDE9D784F942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39F52B-20E3-4C4B-B761-1C0158AE5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{26E45994-9514-4465-A9AA-020E6AA933A4}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <t>SKU:</t>
   </si>
   <si>
-    <t>FECHA DE CONSUMO PREFERENTE:</t>
+    <t>CONSUMO PREFERENTE:</t>
   </si>
 </sst>
 </file>
@@ -83,14 +83,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="32"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="32"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,6 +92,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="40"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -236,23 +236,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,7 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2316981D-266B-49C9-8A23-ACB89392A8A8}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,169 +588,117 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,11 +708,8 @@
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-    </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="16"/>
+      <c r="H37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/data/plantilla.xlsx
+++ b/data/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automatizer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC39F52B-20E3-4C4B-B761-1C0158AE5757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B0A3B6-6B6E-4716-90C5-AB7A0A30CE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{26E45994-9514-4465-A9AA-020E6AA933A4}"/>
   </bookViews>
@@ -114,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,106 +137,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -249,8 +162,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2316981D-266B-49C9-8A23-ACB89392A8A8}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,139 +491,164 @@
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="3" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="66.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="D2" s="11" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="D10" s="11" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="D18" s="13" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="D18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H37" s="10"/>
+      <c r="H37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
